--- a/analyzing-output/categorize/ieee-mapping-matrix.xlsx
+++ b/analyzing-output/categorize/ieee-mapping-matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deric\Desktop\PD111-GotJob---Android-Job-Portal-System\analyzing-output\categorize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB52A171-26D9-4A0E-8266-960E1F26E2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB866B40-C2B6-4770-852B-6F310004AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8372E57B-F8F6-4536-AC59-D0372AEC4EB3}"/>
+    <workbookView xWindow="12710" yWindow="-1750" windowWidth="19380" windowHeight="10260" xr2:uid="{8372E57B-F8F6-4536-AC59-D0372AEC4EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,19 +254,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA4097E-1816-4C85-A6E2-1D37910460DA}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -655,41 +655,41 @@
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -707,25 +707,25 @@
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -743,33 +743,33 @@
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -787,25 +787,25 @@
       <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -818,6 +818,11 @@
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
@@ -828,11 +833,6 @@
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="E2:E6"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
